--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE99F78-AD2F-4410-ACF1-C6AADF790F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02721076-C556-4586-AA85-24569A97528E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Czech" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>NGC-3478/T2265</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1734</t>
   </si>
 </sst>
 </file>
@@ -703,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,4 +866,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654C7015-8C08-4545-A089-E48F21F13111}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02721076-C556-4586-AA85-24569A97528E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87694B7-C57B-405C-8739-89F8B4822FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -125,6 +126,24 @@
   </si>
   <si>
     <t>NGC-3477/T1734</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>P32AR-CH</t>
+  </si>
+  <si>
+    <t>P32DR-CH</t>
+  </si>
+  <si>
+    <t>PR1DSCH</t>
+  </si>
+  <si>
+    <t>PR8ASCH</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2344</t>
   </si>
 </sst>
 </file>
@@ -872,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654C7015-8C08-4545-A089-E48F21F13111}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,4 +1037,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA04BEF-0420-4B76-B49F-3C601C1ADA59}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87694B7-C57B-405C-8739-89F8B4822FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9557F205-6E75-4DD2-AE31-A90C24C19D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -144,6 +145,12 @@
   </si>
   <si>
     <t>NGC-3476/T2344</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2404</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -568,7 +575,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +737,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +899,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA04BEF-0420-4B76-B49F-3C601C1ADA59}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,4 +1206,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A8F7D-F9A1-4C23-B28D-2C5E0D7D53C4}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9557F205-6E75-4DD2-AE31-A90C24C19D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6D092-472F-4357-99A0-BF90CDFE6E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -103,12 +103,6 @@
   </si>
   <si>
     <t>PR8AS</t>
-  </si>
-  <si>
-    <t>ZXF</t>
-  </si>
-  <si>
-    <t>ZXFEV</t>
   </si>
   <si>
     <t>NGC-3475/T1730</t>
@@ -572,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" activeCellId="1" sqref="A20:XFD20 A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -621,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -704,21 +698,11 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -734,10 +718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -783,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -866,21 +850,11 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -923,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -945,7 +919,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1075,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1097,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1160,12 +1134,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1175,7 +1149,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -1185,7 +1159,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -1212,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A8F7D-F9A1-4C23-B28D-2C5E0D7D53C4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
@@ -1237,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1259,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6D092-472F-4357-99A0-BF90CDFE6E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE78DF0D-B2BE-436F-AD66-F5D1877EEA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="18" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -145,6 +146,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3222</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -568,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" activeCellId="1" sqref="A20:XFD20 A21:XFD21"/>
     </sheetView>
   </sheetViews>
@@ -1186,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A8F7D-F9A1-4C23-B28D-2C5E0D7D53C4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,4 +1339,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CD900D-7517-4723-85F0-29B16BBBA236}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE78DF0D-B2BE-436F-AD66-F5D1877EEA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A434249-69F3-41B2-AB78-3AED4B46867E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="18" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="19" r:id="rId6"/>
+    <sheet name="Italy" sheetId="20" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -152,13 +153,19 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2155</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +184,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -259,6 +273,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +591,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" activeCellId="1" sqref="A20:XFD20 A21:XFD21"/>
+      <selection activeCell="A8" sqref="A8:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,6 +1360,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CD900D-7517-4723-85F0-29B16BBBA236}">
   <dimension ref="A1:D19"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E87DC20-DF00-4FEE-A9FE-6498FD2F887A}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1370,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1387,12 +1558,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
+      <c r="B4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1465,27 +1636,37 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A434249-69F3-41B2-AB78-3AED4B46867E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C930A0B1-B414-4935-A2CC-E34B040B3604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="18" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="19" r:id="rId6"/>
     <sheet name="Italy" sheetId="20" r:id="rId7"/>
+    <sheet name="Spain" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -159,6 +160,12 @@
   </si>
   <si>
     <t>NGC-3145/T2155</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2034</t>
   </si>
 </sst>
 </file>
@@ -267,13 +274,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,12 +610,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -617,10 +624,10 @@
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -755,12 +762,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -769,10 +776,10 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -907,12 +914,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -921,10 +928,10 @@
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1059,12 +1066,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1073,10 +1080,10 @@
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1221,12 +1228,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1235,10 +1242,10 @@
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1373,12 +1380,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1387,10 +1394,10 @@
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1516,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E87DC20-DF00-4FEE-A9FE-6498FD2F887A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,12 +1536,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1543,10 +1550,10 @@
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1562,7 +1569,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="5"/>
@@ -1571,6 +1578,171 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B3476-A1D5-48F1-810C-286066E2D592}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C930A0B1-B414-4935-A2CC-E34B040B3604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C91477F-EFFF-406E-BC3B-720FA8523A3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="19" r:id="rId6"/>
     <sheet name="Italy" sheetId="20" r:id="rId7"/>
     <sheet name="Spain" sheetId="21" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="22" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="44">
   <si>
     <t>Wg</t>
   </si>
@@ -166,6 +167,12 @@
   </si>
   <si>
     <t>NGC-3103/T2034</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3291</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B3476-A1D5-48F1-810C-286066E2D592}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1848,4 +1855,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CC51CC-1DBF-4A4C-A746-EF258E7B97C8}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C91477F-EFFF-406E-BC3B-720FA8523A3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F08F32-EC27-4A78-9983-40432A01025D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="20" r:id="rId7"/>
     <sheet name="Spain" sheetId="21" r:id="rId8"/>
     <sheet name="Turkey" sheetId="22" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="24" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="46">
   <si>
     <t>Wg</t>
   </si>
@@ -173,6 +174,12 @@
   </si>
   <si>
     <t>NGC-3191/T3291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2415</t>
   </si>
 </sst>
 </file>
@@ -752,6 +759,162 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72EBA71-B4AD-4A30-B976-3C4D976D1672}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D21"/>
@@ -1861,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CC51CC-1DBF-4A4C-A746-EF258E7B97C8}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F08F32-EC27-4A78-9983-40432A01025D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7321A8C-F834-4653-B6A2-F1DF6045884E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="21" r:id="rId8"/>
     <sheet name="Turkey" sheetId="22" r:id="rId9"/>
     <sheet name="Croatia" sheetId="24" r:id="rId10"/>
+    <sheet name="Greece" sheetId="25" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -176,10 +177,16 @@
     <t>NGC-3191/T3291</t>
   </si>
   <si>
-    <t xml:space="preserve"> Market</t>
-  </si>
-  <si>
     <t>NGC-3139/T2415</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3167/T3166</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greece Market</t>
   </si>
 </sst>
 </file>
@@ -763,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72EBA71-B4AD-4A30-B976-3C4D976D1672}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -810,7 +817,163 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B6D76F-B06A-46A7-86C8-D18D5A0AF5CC}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7321A8C-F834-4653-B6A2-F1DF6045884E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC9B806-4B3D-43DE-89FB-3DCED9358B76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="22" r:id="rId9"/>
     <sheet name="Croatia" sheetId="24" r:id="rId10"/>
     <sheet name="Greece" sheetId="25" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="26" r:id="rId12"/>
+    <sheet name="Austria" sheetId="27" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="28" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="55">
   <si>
     <t>Wg</t>
   </si>
@@ -187,6 +190,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2176</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2272</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>MZXSDR240</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2749</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -256,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -279,11 +303,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -302,6 +339,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B6D76F-B06A-46A7-86C8-D18D5A0AF5CC}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1067,6 +1107,447 @@
         <v>9</v>
       </c>
       <c r="B19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2B3110-BFCF-42CA-B416-BB81D50120A4}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857C5C1C-25E3-4FCC-BFD2-E1595E75AE12}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD1DBA4-B641-40F1-9950-9EACC0407740}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC9B806-4B3D-43DE-89FB-3DCED9358B76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D63F09-275E-439A-8272-9BB1088368F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="26" r:id="rId12"/>
     <sheet name="Austria" sheetId="27" r:id="rId13"/>
     <sheet name="Denmark" sheetId="28" r:id="rId14"/>
+    <sheet name="Russia" sheetId="30" r:id="rId15"/>
+    <sheet name="Finland" sheetId="31" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="32" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="61">
   <si>
     <t>Wg</t>
   </si>
@@ -211,6 +214,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2900</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2943</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2992</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -333,15 +354,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,12 +692,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -685,10 +706,10 @@
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -823,12 +844,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -837,10 +858,10 @@
       <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -979,12 +1000,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -993,10 +1014,10 @@
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1135,12 +1156,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1149,10 +1170,10 @@
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1183,70 +1204,70 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1287,12 +1308,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1301,10 +1322,10 @@
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1335,60 +1356,60 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1416,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD1DBA4-B641-40F1-9950-9EACC0407740}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1429,12 +1450,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1443,10 +1464,10 @@
       <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1546,6 +1567,434 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D5F7F3-9696-4B18-9951-150ACF583D2F}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A830839C-9DDA-4873-A62C-0EFB0780EC3D}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDC70BA-6023-4BEE-8C13-862E85C38076}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1576,12 +2025,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1590,10 +2039,10 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1728,12 +2177,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1742,10 +2191,10 @@
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1880,12 +2329,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1894,10 +2343,10 @@
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2042,12 +2491,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2056,10 +2505,10 @@
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2194,12 +2643,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2208,10 +2657,10 @@
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2350,12 +2799,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2364,10 +2813,10 @@
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2515,12 +2964,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2529,10 +2978,10 @@
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2680,12 +3129,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2694,10 +3143,10 @@
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">

--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D63F09-275E-439A-8272-9BB1088368F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24E4754-B667-4F52-8EE4-D01E2AD197AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="30" r:id="rId15"/>
     <sheet name="Finland" sheetId="31" r:id="rId16"/>
     <sheet name="Hungary" sheetId="32" r:id="rId17"/>
+    <sheet name="Norway" sheetId="33" r:id="rId18"/>
+    <sheet name="Poland" sheetId="34" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="65">
   <si>
     <t>Wg</t>
   </si>
@@ -232,6 +234,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3061/T3060</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3104/T3103</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDC70BA-6023-4BEE-8C13-862E85C38076}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1997,6 +2011,324 @@
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D04C56D-564C-4228-82A5-02A3C059ADC3}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C57CA5-1227-4AB8-99E9-F4CCA19BF851}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24E4754-B667-4F52-8EE4-D01E2AD197AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18B9719-F04B-4D6D-A98C-90CCA3AF87E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="32" r:id="rId17"/>
     <sheet name="Norway" sheetId="33" r:id="rId18"/>
     <sheet name="Poland" sheetId="34" r:id="rId19"/>
+    <sheet name="UK" sheetId="35" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="67">
   <si>
     <t>Wg</t>
   </si>
@@ -246,6 +247,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3343</t>
+  </si>
+  <si>
+    <t>UKl Market</t>
   </si>
 </sst>
 </file>
@@ -2026,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D04C56D-564C-4228-82A5-02A3C059ADC3}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2492,6 +2499,158 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102B12BC-B585-4585-8424-2CD77C22E14C}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654C7015-8C08-4545-A089-E48F21F13111}">
   <dimension ref="A1:D21"/>
